--- a/public/data/jadwal.xlsx
+++ b/public/data/jadwal.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\web gabut\web tmj\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TENIK INFORMATIKA\ADMIN LAB\website\web-lab\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC83E83-F9D7-434F-AC3C-6B52A551C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{7AC97D85-B9F0-43E2-AAC3-209979E82747}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>SENIN</t>
   </si>
@@ -51,111 +50,12 @@
     <t>13.00 - 15.30</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pengembangan Aplikasi Web C </t>
-  </si>
-  <si>
-    <t>Sistem Terdistribusi C</t>
-  </si>
-  <si>
-    <t>Bu Devi</t>
-  </si>
-  <si>
-    <t>Pak Husni</t>
-  </si>
-  <si>
     <t>Istirahat</t>
   </si>
   <si>
-    <t>JUMAT</t>
-  </si>
-  <si>
-    <t>SABTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pembelajaran Mesin A </t>
-  </si>
-  <si>
-    <t>Pengolahan Citra B</t>
-  </si>
-  <si>
-    <t>Sistem Informasi A</t>
-  </si>
-  <si>
-    <t>Sistem Informasi B</t>
-  </si>
-  <si>
-    <t>Bu  Indah</t>
-  </si>
-  <si>
-    <t>Bu Rima</t>
-  </si>
-  <si>
-    <t>Bu Eka</t>
-  </si>
-  <si>
-    <t>Jaringan Komputer 1 D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pemrograman Desktop B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRAKTIKUM PTI B	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRAKTIKUM Alpro G	</t>
-  </si>
-  <si>
-    <t>PRAKTIKUM Alpro E</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Algoritma &amp; Dasar Pemrograman C </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algoritma &amp; Dasar Pemrograman E </t>
-  </si>
-  <si>
-    <t>Algoritma &amp; Dasar Pemrograman F</t>
-  </si>
-  <si>
-    <t>Bu Indah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algoritma &amp; Dasar Pemrograman G </t>
-  </si>
-  <si>
     <t>Bu Arik</t>
   </si>
   <si>
-    <t>PRAKTIKUM Alpro D</t>
-  </si>
-  <si>
-    <t>PRAKTIKUM Jarkom C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRAKTIKUM PTI C	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRAKTIKUM Alpro F	</t>
-  </si>
-  <si>
-    <t>10.00 - 11.15</t>
-  </si>
-  <si>
-    <t>15.15 - 16.30</t>
-  </si>
-  <si>
-    <t>16.45 - 18.00</t>
-  </si>
-  <si>
-    <t>15.15-  16.30</t>
-  </si>
-  <si>
-    <t>12.15 - 13.30</t>
-  </si>
-  <si>
-    <t>15.30 - 18.00</t>
-  </si>
-  <si>
     <t>Mata Kuliah</t>
   </si>
   <si>
@@ -166,12 +66,48 @@
   </si>
   <si>
     <t>Dosen</t>
+  </si>
+  <si>
+    <t>Basdat II</t>
+  </si>
+  <si>
+    <t>Pak Meidya</t>
+  </si>
+  <si>
+    <t>Organisasi Komputer Dan Sistem Operasi</t>
+  </si>
+  <si>
+    <t>Pak Yoga</t>
+  </si>
+  <si>
+    <t>Pak Faris</t>
+  </si>
+  <si>
+    <t>Kecerdasan Komputasional</t>
+  </si>
+  <si>
+    <t>Struktur Data</t>
+  </si>
+  <si>
+    <t>Penambangan Teks</t>
+  </si>
+  <si>
+    <t>Komputasi Aljabar Linier</t>
+  </si>
+  <si>
+    <t>Pak Iwan</t>
+  </si>
+  <si>
+    <t>Grafika Komputer</t>
+  </si>
+  <si>
+    <t>Pak Yonathan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -247,11 +183,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,9 +237,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,14 +246,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786F6C3C-21DE-430A-BDC6-1E51FD626A61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,17 +615,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>45</v>
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,10 +636,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,19 +648,19 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -667,282 +668,207 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="1" t="s">
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
+      <c r="C16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="1"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="5"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/data/jadwal.xlsx
+++ b/public/data/jadwal.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="JADWAL RAMADHAN" sheetId="2" r:id="rId1"/>
+    <sheet name="JADWAL NORMAL" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="28">
   <si>
     <t>SENIN</t>
   </si>
@@ -102,13 +103,22 @@
   </si>
   <si>
     <t>Pak Yonathan</t>
+  </si>
+  <si>
+    <t>08:00 – 09:45</t>
+  </si>
+  <si>
+    <t>09:45 – 11:30</t>
+  </si>
+  <si>
+    <t>11:30 – 13:15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +143,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +175,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -220,11 +242,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,37 +300,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -285,6 +318,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,21 +687,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView zoomScale="123" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -643,7 +994,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -655,15 +1006,15 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -675,7 +1026,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -689,7 +1040,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -701,15 +1052,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -721,7 +1072,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -735,7 +1086,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -747,15 +1098,15 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -769,7 +1120,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
@@ -781,19 +1132,19 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -802,71 +1153,75 @@
     </row>
     <row r="20" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="20"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
